--- a/src/routes/Kdi/downloadFile/导入模板.xlsx
+++ b/src/routes/Kdi/downloadFile/导入模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2844C1F-614C-4C5E-A61C-F5AC55F13847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75135F01-4F0E-452E-B626-28DDBD154D12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="8310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>订单标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桂圆五斤一件 鲜果优先派送 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市宝安区幸福路55号保护伞公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-  </si>
-  <si>
-    <t>订单标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137XXXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">桂圆五斤一件 鲜果优先派送 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省深圳市宝安区幸福路55号保护伞公司</t>
+    <t>收件人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +68,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -106,15 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,50 +385,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13754621351</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
